--- a/Documentos.xlsx
+++ b/Documentos.xlsx
@@ -44,25 +44,25 @@
     <t>123</t>
   </si>
   <si>
+    <t>venta</t>
+  </si>
+  <si>
+    <t>2/06/2025 10:50:00 p. m.</t>
+  </si>
+  <si>
+    <t>Asignado</t>
+  </si>
+  <si>
+    <t>5678</t>
+  </si>
+  <si>
     <t>Compra</t>
   </si>
   <si>
     <t>2/06/2025 12:00:00 a. m.</t>
   </si>
   <si>
-    <t>Entregado</t>
-  </si>
-  <si>
-    <t>4567</t>
-  </si>
-  <si>
-    <t>Compra de Haku</t>
-  </si>
-  <si>
-    <t>3/06/2025 12:00:00 a. m.</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
+    <t>Transito</t>
   </si>
 </sst>
 </file>
@@ -183,13 +183,13 @@
         <v>15</v>
       </c>
       <c r="D3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="0">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>16</v>
